--- a/dataanalysis/data/predictions/1600/08191604_1606.xlsx
+++ b/dataanalysis/data/predictions/1600/08191604_1606.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="227">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-19</t>
   </si>
   <si>
@@ -692,12 +695,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -1055,13 +1052,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH129"/>
+  <dimension ref="A1:AI129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,19 +1161,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>13.72</v>
@@ -1194,7 +1194,7 @@
         <v>190971.48</v>
       </c>
       <c r="J2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1235,8 +1235,23 @@
       <c r="W2">
         <v>-1.51</v>
       </c>
+      <c r="X2">
+        <v>-2.19</v>
+      </c>
+      <c r="Y2">
+        <v>11.6</v>
+      </c>
+      <c r="Z2">
+        <v>1.4</v>
+      </c>
       <c r="AC2" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1244,22 +1259,25 @@
       <c r="AG2">
         <v>-1.819663166999817</v>
       </c>
-      <c r="AH2" t="s">
-        <v>226</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300016</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>7.44</v>
@@ -1277,7 +1295,7 @@
         <v>147702.22</v>
       </c>
       <c r="J3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1318,8 +1336,23 @@
       <c r="W3">
         <v>0.22</v>
       </c>
+      <c r="X3">
+        <v>-8.35</v>
+      </c>
+      <c r="Y3">
+        <v>11.15</v>
+      </c>
+      <c r="Z3">
+        <v>-0.98</v>
+      </c>
       <c r="AC3" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1327,22 +1360,25 @@
       <c r="AG3">
         <v>5.729929447174072</v>
       </c>
-      <c r="AH3" t="s">
-        <v>226</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300033</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-3.86</v>
@@ -1360,7 +1396,7 @@
         <v>800848.84</v>
       </c>
       <c r="J4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1401,8 +1437,23 @@
       <c r="W4">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X4">
+        <v>-0.71</v>
+      </c>
+      <c r="Y4">
+        <v>389.88</v>
+      </c>
+      <c r="Z4">
+        <v>0.15</v>
+      </c>
       <c r="AC4" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1410,22 +1461,25 @@
       <c r="AG4">
         <v>4.871382236480713</v>
       </c>
-      <c r="AH4" t="s">
-        <v>226</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300059</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-3.41</v>
@@ -1443,7 +1497,7 @@
         <v>2465674.44</v>
       </c>
       <c r="J5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1484,8 +1538,23 @@
       <c r="W5">
         <v>-0.82</v>
       </c>
+      <c r="X5">
+        <v>0.67</v>
+      </c>
+      <c r="Y5">
+        <v>27.08</v>
+      </c>
+      <c r="Z5">
+        <v>0.67</v>
+      </c>
       <c r="AC5" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1493,22 +1562,25 @@
       <c r="AG5">
         <v>167.7980804443359</v>
       </c>
-      <c r="AH5" t="s">
-        <v>226</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300145</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-5.31</v>
@@ -1526,7 +1598,7 @@
         <v>148123.6</v>
       </c>
       <c r="J6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -1567,8 +1639,23 @@
       <c r="W6">
         <v>-1.72</v>
       </c>
+      <c r="X6">
+        <v>-0.19</v>
+      </c>
+      <c r="Y6">
+        <v>5.35</v>
+      </c>
+      <c r="Z6">
+        <v>3.48</v>
+      </c>
       <c r="AC6" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1576,22 +1663,25 @@
       <c r="AG6">
         <v>3.935123920440674</v>
       </c>
-      <c r="AH6" t="s">
-        <v>226</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300158</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>5.82</v>
@@ -1609,7 +1699,7 @@
         <v>184660.98</v>
       </c>
       <c r="J7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K7">
         <v>20</v>
@@ -1650,8 +1740,23 @@
       <c r="W7">
         <v>0.84</v>
       </c>
+      <c r="X7">
+        <v>-5.61</v>
+      </c>
+      <c r="Y7">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="Z7">
+        <v>0.22</v>
+      </c>
       <c r="AC7" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1659,22 +1764,25 @@
       <c r="AG7">
         <v>10.36172866821289</v>
       </c>
-      <c r="AH7" t="s">
-        <v>226</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300184</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>0.09</v>
@@ -1692,7 +1800,7 @@
         <v>262140.52</v>
       </c>
       <c r="J8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1733,8 +1841,23 @@
       <c r="W8">
         <v>-0.49</v>
       </c>
+      <c r="X8">
+        <v>1.21</v>
+      </c>
+      <c r="Y8">
+        <v>11.7</v>
+      </c>
+      <c r="Z8">
+        <v>1.21</v>
+      </c>
       <c r="AC8" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1742,22 +1865,25 @@
       <c r="AG8">
         <v>-2.436644554138184</v>
       </c>
-      <c r="AH8" t="s">
-        <v>226</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300188</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-1.38</v>
@@ -1775,7 +1901,7 @@
         <v>133835.9</v>
       </c>
       <c r="J9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K9">
         <v>4</v>
@@ -1816,8 +1942,23 @@
       <c r="W9">
         <v>-0.11</v>
       </c>
+      <c r="X9">
+        <v>-2.21</v>
+      </c>
+      <c r="Y9">
+        <v>18.41</v>
+      </c>
+      <c r="Z9">
+        <v>-0.7</v>
+      </c>
       <c r="AC9" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1825,22 +1966,25 @@
       <c r="AG9">
         <v>16.20052909851074</v>
       </c>
-      <c r="AH9" t="s">
-        <v>226</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300196</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-3.14</v>
@@ -1858,7 +2002,7 @@
         <v>35949.3</v>
       </c>
       <c r="J10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K10">
         <v>6</v>
@@ -1899,8 +2043,23 @@
       <c r="W10">
         <v>-0.58</v>
       </c>
+      <c r="X10">
+        <v>-1.62</v>
+      </c>
+      <c r="Y10">
+        <v>16.74</v>
+      </c>
+      <c r="Z10">
+        <v>0.48</v>
+      </c>
       <c r="AC10" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1908,22 +2067,25 @@
       <c r="AG10">
         <v>-1.725311279296875</v>
       </c>
-      <c r="AH10" t="s">
-        <v>226</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300199</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-2.17</v>
@@ -1941,7 +2103,7 @@
         <v>463571.61</v>
       </c>
       <c r="J11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K11">
         <v>16</v>
@@ -1982,8 +2144,23 @@
       <c r="W11">
         <v>-1.48</v>
       </c>
+      <c r="X11">
+        <v>-0.21</v>
+      </c>
+      <c r="Y11">
+        <v>31.19</v>
+      </c>
+      <c r="Z11">
+        <v>6.6</v>
+      </c>
       <c r="AC11" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1991,22 +2168,25 @@
       <c r="AG11">
         <v>29.67341804504395</v>
       </c>
-      <c r="AH11" t="s">
-        <v>226</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300213</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0.92</v>
@@ -2024,7 +2204,7 @@
         <v>68905.75</v>
       </c>
       <c r="J12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K12">
         <v>4</v>
@@ -2065,8 +2245,23 @@
       <c r="W12">
         <v>-0.03</v>
       </c>
+      <c r="X12">
+        <v>0.82</v>
+      </c>
+      <c r="Y12">
+        <v>11.46</v>
+      </c>
+      <c r="Z12">
+        <v>4.85</v>
+      </c>
       <c r="AC12" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2074,22 +2269,25 @@
       <c r="AG12">
         <v>1.86197292804718</v>
       </c>
-      <c r="AH12" t="s">
-        <v>226</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300218</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>0.35</v>
@@ -2107,7 +2305,7 @@
         <v>36770.52</v>
       </c>
       <c r="J13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K13">
         <v>8</v>
@@ -2148,8 +2346,23 @@
       <c r="W13">
         <v>-0.67</v>
       </c>
+      <c r="X13">
+        <v>-4.08</v>
+      </c>
+      <c r="Y13">
+        <v>22.66</v>
+      </c>
+      <c r="Z13">
+        <v>-0.53</v>
+      </c>
       <c r="AC13" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2157,22 +2370,25 @@
       <c r="AG13">
         <v>0.8874461650848389</v>
       </c>
-      <c r="AH13" t="s">
-        <v>226</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300252</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>0.85</v>
@@ -2190,7 +2406,7 @@
         <v>150567.48</v>
       </c>
       <c r="J14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -2231,8 +2447,23 @@
       <c r="W14">
         <v>-1.21</v>
       </c>
+      <c r="X14">
+        <v>-0.91</v>
+      </c>
+      <c r="Y14">
+        <v>14.5</v>
+      </c>
+      <c r="Z14">
+        <v>1.83</v>
+      </c>
       <c r="AC14" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>1</v>
@@ -2240,22 +2471,25 @@
       <c r="AG14">
         <v>10.6070499420166</v>
       </c>
-      <c r="AH14" t="s">
-        <v>226</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300291</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-3.28</v>
@@ -2273,7 +2507,7 @@
         <v>93184.05</v>
       </c>
       <c r="J15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2314,8 +2548,23 @@
       <c r="W15">
         <v>-0.76</v>
       </c>
+      <c r="X15">
+        <v>-2.21</v>
+      </c>
+      <c r="Y15">
+        <v>6.8</v>
+      </c>
+      <c r="Z15">
+        <v>0.29</v>
+      </c>
       <c r="AC15" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2323,22 +2572,25 @@
       <c r="AG15">
         <v>160.7371826171875</v>
       </c>
-      <c r="AH15" t="s">
-        <v>226</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300304</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>1.5</v>
@@ -2356,7 +2608,7 @@
         <v>66328.78999999999</v>
       </c>
       <c r="J16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K16">
         <v>7</v>
@@ -2397,8 +2649,23 @@
       <c r="W16">
         <v>-0.13</v>
       </c>
+      <c r="X16">
+        <v>2.88</v>
+      </c>
+      <c r="Y16">
+        <v>13.65</v>
+      </c>
+      <c r="Z16">
+        <v>6.23</v>
+      </c>
       <c r="AC16" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2406,22 +2673,25 @@
       <c r="AG16">
         <v>5.241620063781738</v>
       </c>
-      <c r="AH16" t="s">
-        <v>226</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300328</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>20</v>
@@ -2439,7 +2709,7 @@
         <v>283854.44</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2480,8 +2750,23 @@
       <c r="W17">
         <v>2.07</v>
       </c>
+      <c r="X17">
+        <v>7.54</v>
+      </c>
+      <c r="Y17">
+        <v>19.53</v>
+      </c>
+      <c r="Z17">
+        <v>15.02</v>
+      </c>
       <c r="AC17" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -2489,22 +2774,25 @@
       <c r="AG17">
         <v>10.87342262268066</v>
       </c>
-      <c r="AH17" t="s">
-        <v>227</v>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300368</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-2.86</v>
@@ -2522,7 +2810,7 @@
         <v>200585.7</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K18">
         <v>8</v>
@@ -2563,8 +2851,23 @@
       <c r="W18">
         <v>-0.88</v>
       </c>
+      <c r="X18">
+        <v>4.3</v>
+      </c>
+      <c r="Y18">
+        <v>17.47</v>
+      </c>
+      <c r="Z18">
+        <v>7.31</v>
+      </c>
       <c r="AC18" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2572,22 +2875,25 @@
       <c r="AG18">
         <v>5.033198356628418</v>
       </c>
-      <c r="AH18" t="s">
-        <v>226</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300395</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-7.23</v>
@@ -2605,7 +2911,7 @@
         <v>277392.44</v>
       </c>
       <c r="J19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K19">
         <v>5</v>
@@ -2646,8 +2952,23 @@
       <c r="W19">
         <v>-0.25</v>
       </c>
+      <c r="X19">
+        <v>-1.89</v>
+      </c>
+      <c r="Y19">
+        <v>95.5</v>
+      </c>
+      <c r="Z19">
+        <v>0.42</v>
+      </c>
       <c r="AC19" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2655,22 +2976,25 @@
       <c r="AG19">
         <v>0.2810342013835907</v>
       </c>
-      <c r="AH19" t="s">
-        <v>226</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300398</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-4.58</v>
@@ -2688,7 +3012,7 @@
         <v>160983.3</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K20">
         <v>5</v>
@@ -2729,8 +3053,23 @@
       <c r="W20">
         <v>-1.59</v>
       </c>
+      <c r="X20">
+        <v>1.31</v>
+      </c>
+      <c r="Y20">
+        <v>24.06</v>
+      </c>
+      <c r="Z20">
+        <v>1.31</v>
+      </c>
       <c r="AC20" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2738,22 +3077,25 @@
       <c r="AG20">
         <v>2.256911754608154</v>
       </c>
-      <c r="AH20" t="s">
-        <v>226</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300400</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>2.72</v>
@@ -2771,7 +3113,7 @@
         <v>98329.37</v>
       </c>
       <c r="J21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K21">
         <v>7</v>
@@ -2812,8 +3154,23 @@
       <c r="W21">
         <v>-0.87</v>
       </c>
+      <c r="X21">
+        <v>-7.47</v>
+      </c>
+      <c r="Y21">
+        <v>26.33</v>
+      </c>
+      <c r="Z21">
+        <v>-3.16</v>
+      </c>
       <c r="AC21" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2821,22 +3178,25 @@
       <c r="AG21">
         <v>-1.929241418838501</v>
       </c>
-      <c r="AH21" t="s">
-        <v>226</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300404</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>19.98</v>
@@ -2854,7 +3214,7 @@
         <v>61810.39</v>
       </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -2895,8 +3255,23 @@
       <c r="W22">
         <v>4.27</v>
       </c>
+      <c r="X22">
+        <v>-6.01</v>
+      </c>
+      <c r="Y22">
+        <v>13.14</v>
+      </c>
+      <c r="Z22">
+        <v>-0.08</v>
+      </c>
       <c r="AC22" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>1</v>
@@ -2904,22 +3279,25 @@
       <c r="AG22">
         <v>6.541676998138428</v>
       </c>
-      <c r="AH22" t="s">
-        <v>227</v>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300409</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>2.92</v>
@@ -2937,7 +3315,7 @@
         <v>192932.85</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -2978,8 +3356,23 @@
       <c r="W23">
         <v>0.59</v>
       </c>
+      <c r="X23">
+        <v>1.26</v>
+      </c>
+      <c r="Y23">
+        <v>21.8</v>
+      </c>
+      <c r="Z23">
+        <v>1.49</v>
+      </c>
       <c r="AC23" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2987,22 +3380,25 @@
       <c r="AG23">
         <v>4.946109294891357</v>
       </c>
-      <c r="AH23" t="s">
-        <v>226</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300436</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-6.58</v>
@@ -3020,7 +3416,7 @@
         <v>332980.4</v>
       </c>
       <c r="J24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K24">
         <v>34</v>
@@ -3061,8 +3457,23 @@
       <c r="W24">
         <v>-1.66</v>
       </c>
+      <c r="X24">
+        <v>-8.69</v>
+      </c>
+      <c r="Y24">
+        <v>159.92</v>
+      </c>
+      <c r="Z24">
+        <v>-0.6</v>
+      </c>
       <c r="AC24" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3070,22 +3481,25 @@
       <c r="AG24">
         <v>0.961725115776062</v>
       </c>
-      <c r="AH24" t="s">
-        <v>226</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300453</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-0.36</v>
@@ -3103,7 +3517,7 @@
         <v>49650.19</v>
       </c>
       <c r="J25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -3144,8 +3558,23 @@
       <c r="W25">
         <v>-0.59</v>
       </c>
+      <c r="X25">
+        <v>-5.42</v>
+      </c>
+      <c r="Y25">
+        <v>10.88</v>
+      </c>
+      <c r="Z25">
+        <v>-1.63</v>
+      </c>
       <c r="AC25" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3153,22 +3582,25 @@
       <c r="AG25">
         <v>4.075728416442871</v>
       </c>
-      <c r="AH25" t="s">
-        <v>226</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300486</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>2.63</v>
@@ -3186,7 +3618,7 @@
         <v>168683.19</v>
       </c>
       <c r="J26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -3227,8 +3659,23 @@
       <c r="W26">
         <v>0.13</v>
       </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>-100</v>
+      </c>
       <c r="AC26" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3236,22 +3683,25 @@
       <c r="AG26">
         <v>3.033513307571411</v>
       </c>
-      <c r="AH26" t="s">
-        <v>226</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300499</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>6.66</v>
@@ -3269,7 +3719,7 @@
         <v>436455.99</v>
       </c>
       <c r="J27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K27">
         <v>5</v>
@@ -3310,8 +3760,23 @@
       <c r="W27">
         <v>-1.42</v>
       </c>
+      <c r="X27">
+        <v>-1.64</v>
+      </c>
+      <c r="Y27">
+        <v>33.23</v>
+      </c>
+      <c r="Z27">
+        <v>0.7</v>
+      </c>
       <c r="AC27" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3319,22 +3784,25 @@
       <c r="AG27">
         <v>-23.04615020751953</v>
       </c>
-      <c r="AH27" t="s">
-        <v>226</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300539</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>7.58</v>
@@ -3352,7 +3820,7 @@
         <v>112449.43</v>
       </c>
       <c r="J28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K28">
         <v>9</v>
@@ -3393,8 +3861,23 @@
       <c r="W28">
         <v>-0.09</v>
       </c>
+      <c r="X28">
+        <v>-7.89</v>
+      </c>
+      <c r="Y28">
+        <v>34.4</v>
+      </c>
+      <c r="Z28">
+        <v>-3.1</v>
+      </c>
       <c r="AC28" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>1</v>
@@ -3402,22 +3885,25 @@
       <c r="AG28">
         <v>8.187080383300781</v>
       </c>
-      <c r="AH28" t="s">
-        <v>226</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300547</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>2.14</v>
@@ -3435,7 +3921,7 @@
         <v>300579.64</v>
       </c>
       <c r="J29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -3476,8 +3962,23 @@
       <c r="W29">
         <v>0.46</v>
       </c>
+      <c r="X29">
+        <v>-4.13</v>
+      </c>
+      <c r="Y29">
+        <v>53.5</v>
+      </c>
+      <c r="Z29">
+        <v>-0.8</v>
+      </c>
       <c r="AC29" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3485,22 +3986,25 @@
       <c r="AG29">
         <v>-2.305065393447876</v>
       </c>
-      <c r="AH29" t="s">
-        <v>226</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300548</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>1.11</v>
@@ -3518,7 +4022,7 @@
         <v>265838.39</v>
       </c>
       <c r="J30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K30">
         <v>26</v>
@@ -3559,8 +4063,23 @@
       <c r="W30">
         <v>0.36</v>
       </c>
+      <c r="X30">
+        <v>6.04</v>
+      </c>
+      <c r="Y30">
+        <v>109.88</v>
+      </c>
+      <c r="Z30">
+        <v>9.6</v>
+      </c>
       <c r="AC30" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3568,22 +4087,25 @@
       <c r="AG30">
         <v>8.658297538757324</v>
       </c>
-      <c r="AH30" t="s">
-        <v>226</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300579</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-1.94</v>
@@ -3601,7 +4123,7 @@
         <v>71301.86</v>
       </c>
       <c r="J31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K31">
         <v>5</v>
@@ -3642,8 +4164,23 @@
       <c r="W31">
         <v>-0.63</v>
       </c>
+      <c r="X31">
+        <v>-0.93</v>
+      </c>
+      <c r="Y31">
+        <v>39.98</v>
+      </c>
+      <c r="Z31">
+        <v>0.03</v>
+      </c>
       <c r="AC31" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3651,22 +4188,25 @@
       <c r="AG31">
         <v>2.252135276794434</v>
       </c>
-      <c r="AH31" t="s">
-        <v>226</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300584</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-3.25</v>
@@ -3684,7 +4224,7 @@
         <v>119582.57</v>
       </c>
       <c r="J32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K32">
         <v>6</v>
@@ -3725,8 +4265,23 @@
       <c r="W32">
         <v>-1.81</v>
       </c>
+      <c r="X32">
+        <v>-3.24</v>
+      </c>
+      <c r="Y32">
+        <v>56.69</v>
+      </c>
+      <c r="Z32">
+        <v>-0.68</v>
+      </c>
       <c r="AC32" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3734,22 +4289,25 @@
       <c r="AG32">
         <v>-0.1887977570295334</v>
       </c>
-      <c r="AH32" t="s">
-        <v>226</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300588</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>7.85</v>
@@ -3767,7 +4325,7 @@
         <v>49084.61</v>
       </c>
       <c r="J33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -3808,8 +4366,23 @@
       <c r="W33">
         <v>-0.08</v>
       </c>
+      <c r="X33">
+        <v>-12.45</v>
+      </c>
+      <c r="Y33">
+        <v>21.1</v>
+      </c>
+      <c r="Z33">
+        <v>-5.17</v>
+      </c>
       <c r="AC33" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3817,22 +4390,25 @@
       <c r="AG33">
         <v>6.439426422119141</v>
       </c>
-      <c r="AH33" t="s">
-        <v>226</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300593</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>1.5</v>
@@ -3850,7 +4426,7 @@
         <v>83387.11</v>
       </c>
       <c r="J34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K34">
         <v>8</v>
@@ -3891,8 +4467,23 @@
       <c r="W34">
         <v>0.04</v>
       </c>
+      <c r="X34">
+        <v>-1.38</v>
+      </c>
+      <c r="Y34">
+        <v>20.18</v>
+      </c>
+      <c r="Z34">
+        <v>-0.49</v>
+      </c>
       <c r="AC34" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3900,22 +4491,25 @@
       <c r="AG34">
         <v>2.499313831329346</v>
       </c>
-      <c r="AH34" t="s">
-        <v>226</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300600</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-4.26</v>
@@ -3933,7 +4527,7 @@
         <v>76256.96000000001</v>
       </c>
       <c r="J35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K35">
         <v>15</v>
@@ -3974,8 +4568,23 @@
       <c r="W35">
         <v>-1.26</v>
       </c>
+      <c r="X35">
+        <v>-3.72</v>
+      </c>
+      <c r="Y35">
+        <v>21.86</v>
+      </c>
+      <c r="Z35">
+        <v>-0.73</v>
+      </c>
       <c r="AC35" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3983,22 +4592,25 @@
       <c r="AG35">
         <v>1.75512433052063</v>
       </c>
-      <c r="AH35" t="s">
-        <v>226</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300602</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>1.85</v>
@@ -4016,7 +4628,7 @@
         <v>261886.16</v>
       </c>
       <c r="J36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -4057,8 +4669,23 @@
       <c r="W36">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X36">
+        <v>-2.16</v>
+      </c>
+      <c r="Y36">
+        <v>34.84</v>
+      </c>
+      <c r="Z36">
+        <v>-1.14</v>
+      </c>
       <c r="AC36" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4066,22 +4693,25 @@
       <c r="AG36">
         <v>3.361958026885986</v>
       </c>
-      <c r="AH36" t="s">
-        <v>226</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300609</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-1.52</v>
@@ -4099,7 +4729,7 @@
         <v>77744.75999999999</v>
       </c>
       <c r="J37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K37">
         <v>15</v>
@@ -4140,8 +4770,23 @@
       <c r="W37">
         <v>0.04</v>
       </c>
+      <c r="X37">
+        <v>-7.92</v>
+      </c>
+      <c r="Y37">
+        <v>60.5</v>
+      </c>
+      <c r="Z37">
+        <v>2.59</v>
+      </c>
       <c r="AC37" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4149,22 +4794,25 @@
       <c r="AG37">
         <v>2.740211963653564</v>
       </c>
-      <c r="AH37" t="s">
-        <v>226</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300620</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>2.68</v>
@@ -4182,7 +4830,7 @@
         <v>459548.16</v>
       </c>
       <c r="J38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K38">
         <v>6</v>
@@ -4223,8 +4871,23 @@
       <c r="W38">
         <v>-0.09</v>
       </c>
+      <c r="X38">
+        <v>-6.74</v>
+      </c>
+      <c r="Y38">
+        <v>97.59</v>
+      </c>
+      <c r="Z38">
+        <v>-2.02</v>
+      </c>
       <c r="AC38" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4232,22 +4895,25 @@
       <c r="AG38">
         <v>11.43802070617676</v>
       </c>
-      <c r="AH38" t="s">
-        <v>226</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300631</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>11.69</v>
@@ -4265,7 +4931,7 @@
         <v>142864.04</v>
       </c>
       <c r="J39" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -4306,8 +4972,23 @@
       <c r="W39">
         <v>2.67</v>
       </c>
+      <c r="X39">
+        <v>-3.77</v>
+      </c>
+      <c r="Y39">
+        <v>38.5</v>
+      </c>
+      <c r="Z39">
+        <v>4.42</v>
+      </c>
       <c r="AC39" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4315,22 +4996,25 @@
       <c r="AG39">
         <v>3.71036434173584</v>
       </c>
-      <c r="AH39" t="s">
-        <v>226</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300637</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-5.98</v>
@@ -4348,7 +5032,7 @@
         <v>64051.33</v>
       </c>
       <c r="J40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K40">
         <v>5</v>
@@ -4389,8 +5073,23 @@
       <c r="W40">
         <v>-1.3</v>
       </c>
+      <c r="X40">
+        <v>-0.38</v>
+      </c>
+      <c r="Y40">
+        <v>15.99</v>
+      </c>
+      <c r="Z40">
+        <v>1.72</v>
+      </c>
       <c r="AC40" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4398,22 +5097,25 @@
       <c r="AG40">
         <v>1.536564469337463</v>
       </c>
-      <c r="AH40" t="s">
-        <v>226</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300642</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>20.01</v>
@@ -4431,7 +5133,7 @@
         <v>64486.21</v>
       </c>
       <c r="J41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -4472,8 +5174,23 @@
       <c r="W41">
         <v>3.11</v>
       </c>
+      <c r="X41">
+        <v>7.45</v>
+      </c>
+      <c r="Y41">
+        <v>26.08</v>
+      </c>
+      <c r="Z41">
+        <v>12.95</v>
+      </c>
       <c r="AC41" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>1</v>
@@ -4481,22 +5198,25 @@
       <c r="AG41">
         <v>20.70284843444824</v>
       </c>
-      <c r="AH41" t="s">
-        <v>227</v>
+      <c r="AH41">
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300648</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>2.61</v>
@@ -4514,7 +5234,7 @@
         <v>57093.19</v>
       </c>
       <c r="J42" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K42">
         <v>14</v>
@@ -4555,8 +5275,23 @@
       <c r="W42">
         <v>0.76</v>
       </c>
+      <c r="X42">
+        <v>-6.66</v>
+      </c>
+      <c r="Y42">
+        <v>60.5</v>
+      </c>
+      <c r="Z42">
+        <v>-0.05</v>
+      </c>
       <c r="AC42" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>1</v>
@@ -4564,22 +5299,25 @@
       <c r="AG42">
         <v>3.727408170700073</v>
       </c>
-      <c r="AH42" t="s">
-        <v>227</v>
+      <c r="AH42">
+        <v>1</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300671</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>3.64</v>
@@ -4597,7 +5335,7 @@
         <v>101280.61</v>
       </c>
       <c r="J43" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K43">
         <v>6</v>
@@ -4638,8 +5376,23 @@
       <c r="W43">
         <v>0.37</v>
       </c>
+      <c r="X43">
+        <v>-1.75</v>
+      </c>
+      <c r="Y43">
+        <v>42.5</v>
+      </c>
+      <c r="Z43">
+        <v>-1.07</v>
+      </c>
       <c r="AC43" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4647,22 +5400,25 @@
       <c r="AG43">
         <v>4.971286296844482</v>
       </c>
-      <c r="AH43" t="s">
-        <v>226</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300684</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-2.53</v>
@@ -4680,7 +5436,7 @@
         <v>141936.74</v>
       </c>
       <c r="J44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K44">
         <v>15</v>
@@ -4721,8 +5477,23 @@
       <c r="W44">
         <v>-0.76</v>
       </c>
+      <c r="X44">
+        <v>7.47</v>
+      </c>
+      <c r="Y44">
+        <v>39.58</v>
+      </c>
+      <c r="Z44">
+        <v>9.49</v>
+      </c>
       <c r="AC44" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4730,22 +5501,25 @@
       <c r="AG44">
         <v>2.204004526138306</v>
       </c>
-      <c r="AH44" t="s">
-        <v>226</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300690</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-4.64</v>
@@ -4763,7 +5537,7 @@
         <v>113503.22</v>
       </c>
       <c r="J45" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K45">
         <v>7</v>
@@ -4804,8 +5578,23 @@
       <c r="W45">
         <v>-0.75</v>
       </c>
+      <c r="X45">
+        <v>-1.09</v>
+      </c>
+      <c r="Y45">
+        <v>40.48</v>
+      </c>
+      <c r="Z45">
+        <v>2.58</v>
+      </c>
       <c r="AC45" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4813,22 +5602,25 @@
       <c r="AG45">
         <v>-2.997174739837646</v>
       </c>
-      <c r="AH45" t="s">
-        <v>226</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300703</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>4.2</v>
@@ -4846,7 +5638,7 @@
         <v>74434.14999999999</v>
       </c>
       <c r="J46" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K46">
         <v>8</v>
@@ -4887,8 +5679,23 @@
       <c r="W46">
         <v>1.36</v>
       </c>
+      <c r="X46">
+        <v>6.52</v>
+      </c>
+      <c r="Y46">
+        <v>38</v>
+      </c>
+      <c r="Z46">
+        <v>7.8</v>
+      </c>
       <c r="AC46" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4896,22 +5703,25 @@
       <c r="AG46">
         <v>2.021461248397827</v>
       </c>
-      <c r="AH46" t="s">
-        <v>226</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300706</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-6.03</v>
@@ -4929,7 +5739,7 @@
         <v>125111.07</v>
       </c>
       <c r="J47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K47">
         <v>18</v>
@@ -4970,8 +5780,23 @@
       <c r="W47">
         <v>-2.04</v>
       </c>
+      <c r="X47">
+        <v>0.47</v>
+      </c>
+      <c r="Y47">
+        <v>50.2</v>
+      </c>
+      <c r="Z47">
+        <v>2.97</v>
+      </c>
       <c r="AC47" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4979,22 +5804,25 @@
       <c r="AG47">
         <v>2.527150869369507</v>
       </c>
-      <c r="AH47" t="s">
-        <v>226</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300724</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>0.31</v>
@@ -5012,7 +5840,7 @@
         <v>210637.98</v>
       </c>
       <c r="J48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -5053,8 +5881,23 @@
       <c r="W48">
         <v>0.3</v>
       </c>
+      <c r="X48">
+        <v>3.5</v>
+      </c>
+      <c r="Y48">
+        <v>78.2</v>
+      </c>
+      <c r="Z48">
+        <v>4.99</v>
+      </c>
       <c r="AC48" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>1</v>
@@ -5062,22 +5905,25 @@
       <c r="AG48">
         <v>102.6286010742188</v>
       </c>
-      <c r="AH48" t="s">
-        <v>227</v>
+      <c r="AH48">
+        <v>1</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300727</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-5.41</v>
@@ -5095,7 +5941,7 @@
         <v>100533.08</v>
       </c>
       <c r="J49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -5136,8 +5982,23 @@
       <c r="W49">
         <v>-0.4</v>
       </c>
+      <c r="X49">
+        <v>-3.32</v>
+      </c>
+      <c r="Y49">
+        <v>41.35</v>
+      </c>
+      <c r="Z49">
+        <v>0.17</v>
+      </c>
       <c r="AC49" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5145,22 +6006,25 @@
       <c r="AG49">
         <v>6.162825584411621</v>
       </c>
-      <c r="AH49" t="s">
-        <v>226</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300730</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-5.32</v>
@@ -5178,7 +6042,7 @@
         <v>174029.36</v>
       </c>
       <c r="J50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -5219,8 +6083,23 @@
       <c r="W50">
         <v>-1.63</v>
       </c>
+      <c r="X50">
+        <v>-4.92</v>
+      </c>
+      <c r="Y50">
+        <v>19.89</v>
+      </c>
+      <c r="Z50">
+        <v>-1.14</v>
+      </c>
       <c r="AC50" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5228,22 +6107,25 @@
       <c r="AG50">
         <v>4.445502281188965</v>
       </c>
-      <c r="AH50" t="s">
-        <v>226</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>300731</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-5.83</v>
@@ -5261,7 +6143,7 @@
         <v>157939.37</v>
       </c>
       <c r="J51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K51">
         <v>13</v>
@@ -5302,8 +6184,23 @@
       <c r="W51">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X51">
+        <v>-6.48</v>
+      </c>
+      <c r="Y51">
+        <v>53.93</v>
+      </c>
+      <c r="Z51">
+        <v>-3.75</v>
+      </c>
       <c r="AC51" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5311,22 +6208,25 @@
       <c r="AG51">
         <v>1.266506195068359</v>
       </c>
-      <c r="AH51" t="s">
-        <v>226</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>300752</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>0.29</v>
@@ -5344,7 +6244,7 @@
         <v>33389.43</v>
       </c>
       <c r="J52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -5385,8 +6285,23 @@
       <c r="W52">
         <v>-0.26</v>
       </c>
+      <c r="X52">
+        <v>8.59</v>
+      </c>
+      <c r="Y52">
+        <v>27.45</v>
+      </c>
+      <c r="Z52">
+        <v>14.52</v>
+      </c>
       <c r="AC52" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>1</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5394,22 +6309,25 @@
       <c r="AG52">
         <v>0.7166585922241211</v>
       </c>
-      <c r="AH52" t="s">
-        <v>226</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>300767</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>7.25</v>
@@ -5427,7 +6345,7 @@
         <v>105994.8</v>
       </c>
       <c r="J53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -5468,8 +6386,23 @@
       <c r="W53">
         <v>-1.01</v>
       </c>
+      <c r="X53">
+        <v>-0.8</v>
+      </c>
+      <c r="Y53">
+        <v>22.55</v>
+      </c>
+      <c r="Z53">
+        <v>5.87</v>
+      </c>
       <c r="AC53" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5477,22 +6410,25 @@
       <c r="AG53">
         <v>5.876603603363037</v>
       </c>
-      <c r="AH53" t="s">
-        <v>226</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>300803</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>0.47</v>
@@ -5510,7 +6446,7 @@
         <v>1077097.88</v>
       </c>
       <c r="J54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K54">
         <v>6</v>
@@ -5551,8 +6487,23 @@
       <c r="W54">
         <v>-1.01</v>
       </c>
+      <c r="X54">
+        <v>-1.78</v>
+      </c>
+      <c r="Y54">
+        <v>127.18</v>
+      </c>
+      <c r="Z54">
+        <v>0.5</v>
+      </c>
       <c r="AC54" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5560,22 +6511,25 @@
       <c r="AG54">
         <v>3.331909656524658</v>
       </c>
-      <c r="AH54" t="s">
-        <v>226</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>300806</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-3</v>
@@ -5593,7 +6547,7 @@
         <v>68238.41</v>
       </c>
       <c r="J55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K55">
         <v>3</v>
@@ -5634,8 +6588,23 @@
       <c r="W55">
         <v>-0.72</v>
       </c>
+      <c r="X55">
+        <v>13.3</v>
+      </c>
+      <c r="Y55">
+        <v>26.55</v>
+      </c>
+      <c r="Z55">
+        <v>13.95</v>
+      </c>
       <c r="AC55" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5643,22 +6612,25 @@
       <c r="AG55">
         <v>2.858901262283325</v>
       </c>
-      <c r="AH55" t="s">
-        <v>226</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>300811</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-2.51</v>
@@ -5676,7 +6648,7 @@
         <v>115750.22</v>
       </c>
       <c r="J56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5717,8 +6689,23 @@
       <c r="W56">
         <v>0.36</v>
       </c>
+      <c r="X56">
+        <v>-3.49</v>
+      </c>
+      <c r="Y56">
+        <v>73.5</v>
+      </c>
+      <c r="Z56">
+        <v>-1.06</v>
+      </c>
       <c r="AC56" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5726,22 +6713,25 @@
       <c r="AG56">
         <v>5.752562999725342</v>
       </c>
-      <c r="AH56" t="s">
-        <v>226</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>300814</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-3.06</v>
@@ -5759,7 +6749,7 @@
         <v>101076.93</v>
       </c>
       <c r="J57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -5800,8 +6790,23 @@
       <c r="W57">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X57">
+        <v>-3.34</v>
+      </c>
+      <c r="Y57">
+        <v>48.57</v>
+      </c>
+      <c r="Z57">
+        <v>-1.08</v>
+      </c>
       <c r="AC57" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5809,22 +6814,25 @@
       <c r="AG57">
         <v>2.884119033813477</v>
       </c>
-      <c r="AH57" t="s">
-        <v>226</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>300815</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-6.17</v>
@@ -5842,7 +6850,7 @@
         <v>124613.07</v>
       </c>
       <c r="J58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K58">
         <v>6</v>
@@ -5883,8 +6891,23 @@
       <c r="W58">
         <v>-0.76</v>
       </c>
+      <c r="X58">
+        <v>-1.55</v>
+      </c>
+      <c r="Y58">
+        <v>28.87</v>
+      </c>
+      <c r="Z58">
+        <v>-0.6899999999999999</v>
+      </c>
       <c r="AC58" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5892,22 +6915,25 @@
       <c r="AG58">
         <v>4.135587692260742</v>
       </c>
-      <c r="AH58" t="s">
-        <v>226</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>300830</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>6.07</v>
@@ -5925,7 +6951,7 @@
         <v>105652.76</v>
       </c>
       <c r="J59" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5966,8 +6992,23 @@
       <c r="W59">
         <v>1.39</v>
       </c>
+      <c r="X59">
+        <v>-2.46</v>
+      </c>
+      <c r="Y59">
+        <v>13.5</v>
+      </c>
+      <c r="Z59">
+        <v>-2.24</v>
+      </c>
       <c r="AC59" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5975,22 +7016,25 @@
       <c r="AG59">
         <v>3.734932422637939</v>
       </c>
-      <c r="AH59" t="s">
-        <v>226</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>300835</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>-2.4</v>
@@ -6008,7 +7052,7 @@
         <v>73431.3</v>
       </c>
       <c r="J60" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K60">
         <v>21</v>
@@ -6049,8 +7093,23 @@
       <c r="W60">
         <v>-0.47</v>
       </c>
+      <c r="X60">
+        <v>-0.99</v>
+      </c>
+      <c r="Y60">
+        <v>65.56999999999999</v>
+      </c>
+      <c r="Z60">
+        <v>1.41</v>
+      </c>
       <c r="AC60" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -6058,22 +7117,25 @@
       <c r="AG60">
         <v>0.4848573505878448</v>
       </c>
-      <c r="AH60" t="s">
-        <v>226</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>300843</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-5.19</v>
@@ -6091,7 +7153,7 @@
         <v>104086.84</v>
       </c>
       <c r="J61" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K61">
         <v>3</v>
@@ -6132,8 +7194,23 @@
       <c r="W61">
         <v>0.09</v>
       </c>
+      <c r="X61">
+        <v>-5.27</v>
+      </c>
+      <c r="Y61">
+        <v>47.93</v>
+      </c>
+      <c r="Z61">
+        <v>-2.78</v>
+      </c>
       <c r="AC61" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6141,22 +7218,25 @@
       <c r="AG61">
         <v>0.2641274929046631</v>
       </c>
-      <c r="AH61" t="s">
-        <v>226</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>300870</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>3.52</v>
@@ -6174,7 +7254,7 @@
         <v>208412.45</v>
       </c>
       <c r="J62" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K62">
         <v>5</v>
@@ -6215,8 +7295,23 @@
       <c r="W62">
         <v>-0.53</v>
       </c>
+      <c r="X62">
+        <v>-3.77</v>
+      </c>
+      <c r="Y62">
+        <v>249.85</v>
+      </c>
+      <c r="Z62">
+        <v>-3.07</v>
+      </c>
       <c r="AC62" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6224,22 +7319,25 @@
       <c r="AG62">
         <v>2.425458192825317</v>
       </c>
-      <c r="AH62" t="s">
-        <v>226</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>300902</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>5.07</v>
@@ -6257,7 +7355,7 @@
         <v>51153.33</v>
       </c>
       <c r="J63" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K63">
         <v>5</v>
@@ -6298,8 +7396,23 @@
       <c r="W63">
         <v>0.47</v>
       </c>
+      <c r="X63">
+        <v>-0.32</v>
+      </c>
+      <c r="Y63">
+        <v>33.38</v>
+      </c>
+      <c r="Z63">
+        <v>7.33</v>
+      </c>
       <c r="AC63" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6307,22 +7420,25 @@
       <c r="AG63">
         <v>1.473573207855225</v>
       </c>
-      <c r="AH63" t="s">
-        <v>226</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>300907</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>12.37</v>
@@ -6340,7 +7456,7 @@
         <v>72345.41</v>
       </c>
       <c r="J64" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K64">
         <v>3</v>
@@ -6381,8 +7497,23 @@
       <c r="W64">
         <v>0.82</v>
       </c>
+      <c r="X64">
+        <v>-4.69</v>
+      </c>
+      <c r="Y64">
+        <v>41.24</v>
+      </c>
+      <c r="Z64">
+        <v>-3.82</v>
+      </c>
       <c r="AC64" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6390,22 +7521,25 @@
       <c r="AG64">
         <v>0.1664984077215195</v>
       </c>
-      <c r="AH64" t="s">
-        <v>226</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>300913</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>11.46</v>
@@ -6423,7 +7557,7 @@
         <v>200533.27</v>
       </c>
       <c r="J65" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -6464,8 +7598,23 @@
       <c r="W65">
         <v>0.4</v>
       </c>
+      <c r="X65">
+        <v>-3.49</v>
+      </c>
+      <c r="Y65">
+        <v>58.48</v>
+      </c>
+      <c r="Z65">
+        <v>-2.21</v>
+      </c>
       <c r="AC65" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6473,22 +7622,25 @@
       <c r="AG65">
         <v>6.236574649810791</v>
       </c>
-      <c r="AH65" t="s">
-        <v>226</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>300951</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-0.33</v>
@@ -6506,7 +7658,7 @@
         <v>59920.93</v>
       </c>
       <c r="J66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -6547,8 +7699,23 @@
       <c r="W66">
         <v>0.22</v>
       </c>
+      <c r="X66">
+        <v>4.14</v>
+      </c>
+      <c r="Y66">
+        <v>43.98</v>
+      </c>
+      <c r="Z66">
+        <v>10.31</v>
+      </c>
       <c r="AC66" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6556,22 +7723,25 @@
       <c r="AG66">
         <v>3.194014072418213</v>
       </c>
-      <c r="AH66" t="s">
-        <v>226</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>300969</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>2.2</v>
@@ -6589,7 +7759,7 @@
         <v>30052.21</v>
       </c>
       <c r="J67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K67">
         <v>5</v>
@@ -6630,8 +7800,23 @@
       <c r="W67">
         <v>0.23</v>
       </c>
+      <c r="X67">
+        <v>1.61</v>
+      </c>
+      <c r="Y67">
+        <v>97</v>
+      </c>
+      <c r="Z67">
+        <v>2.71</v>
+      </c>
       <c r="AC67" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6639,22 +7824,25 @@
       <c r="AG67">
         <v>1.421006679534912</v>
       </c>
-      <c r="AH67" t="s">
-        <v>226</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>300990</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>1.78</v>
@@ -6672,7 +7860,7 @@
         <v>54352.01</v>
       </c>
       <c r="J68" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6713,8 +7901,23 @@
       <c r="W68">
         <v>-0.21</v>
       </c>
+      <c r="X68">
+        <v>-2.19</v>
+      </c>
+      <c r="Y68">
+        <v>78.3</v>
+      </c>
+      <c r="Z68">
+        <v>-0.68</v>
+      </c>
       <c r="AC68" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6722,22 +7925,25 @@
       <c r="AG68">
         <v>5.216683387756348</v>
       </c>
-      <c r="AH68" t="s">
-        <v>226</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301007</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>5.95</v>
@@ -6755,7 +7961,7 @@
         <v>68319.33</v>
       </c>
       <c r="J69" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K69">
         <v>5</v>
@@ -6796,8 +8002,23 @@
       <c r="W69">
         <v>0.6</v>
       </c>
+      <c r="X69">
+        <v>3.69</v>
+      </c>
+      <c r="Y69">
+        <v>50.1</v>
+      </c>
+      <c r="Z69">
+        <v>8.699999999999999</v>
+      </c>
       <c r="AC69" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>1</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6805,22 +8026,25 @@
       <c r="AG69">
         <v>1.138127446174622</v>
       </c>
-      <c r="AH69" t="s">
-        <v>226</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301018</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-7.21</v>
@@ -6838,7 +8062,7 @@
         <v>162533.53</v>
       </c>
       <c r="J70" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K70">
         <v>5</v>
@@ -6879,8 +8103,23 @@
       <c r="W70">
         <v>-0.44</v>
       </c>
+      <c r="X70">
+        <v>1.98</v>
+      </c>
+      <c r="Y70">
+        <v>71.5</v>
+      </c>
+      <c r="Z70">
+        <v>4.98</v>
+      </c>
       <c r="AC70" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6888,22 +8127,25 @@
       <c r="AG70">
         <v>2.299448728561401</v>
       </c>
-      <c r="AH70" t="s">
-        <v>226</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301021</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>-2.98</v>
@@ -6921,7 +8163,7 @@
         <v>32614.1</v>
       </c>
       <c r="J71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K71">
         <v>6</v>
@@ -6962,8 +8204,23 @@
       <c r="W71">
         <v>-0.31</v>
       </c>
+      <c r="X71">
+        <v>-1.2</v>
+      </c>
+      <c r="Y71">
+        <v>36.76</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
       <c r="AC71" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6971,22 +8228,25 @@
       <c r="AG71">
         <v>0.3982176780700684</v>
       </c>
-      <c r="AH71" t="s">
-        <v>226</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301022</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>0.35</v>
@@ -7004,7 +8264,7 @@
         <v>30949.09</v>
       </c>
       <c r="J72" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K72">
         <v>10</v>
@@ -7045,8 +8305,23 @@
       <c r="W72">
         <v>-0.1</v>
       </c>
+      <c r="X72">
+        <v>-2.96</v>
+      </c>
+      <c r="Y72">
+        <v>45.2</v>
+      </c>
+      <c r="Z72">
+        <v>-0.9</v>
+      </c>
       <c r="AC72" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -7054,22 +8329,25 @@
       <c r="AG72">
         <v>2.786630630493164</v>
       </c>
-      <c r="AH72" t="s">
-        <v>226</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301067</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>1.5</v>
@@ -7087,7 +8365,7 @@
         <v>28299.35</v>
       </c>
       <c r="J73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K73">
         <v>3</v>
@@ -7128,8 +8406,23 @@
       <c r="W73">
         <v>0.64</v>
       </c>
+      <c r="X73">
+        <v>-2.11</v>
+      </c>
+      <c r="Y73">
+        <v>39</v>
+      </c>
+      <c r="Z73">
+        <v>-0.9399999999999999</v>
+      </c>
       <c r="AC73" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -7137,22 +8430,25 @@
       <c r="AG73">
         <v>3.947449922561646</v>
       </c>
-      <c r="AH73" t="s">
-        <v>226</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301069</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>-5.43</v>
@@ -7170,7 +8466,7 @@
         <v>78342.72</v>
       </c>
       <c r="J74" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K74">
         <v>10</v>
@@ -7211,8 +8507,23 @@
       <c r="W74">
         <v>-0.8100000000000001</v>
       </c>
+      <c r="X74">
+        <v>1.2</v>
+      </c>
+      <c r="Y74">
+        <v>26.58</v>
+      </c>
+      <c r="Z74">
+        <v>9.83</v>
+      </c>
       <c r="AC74" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>1</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7220,22 +8531,25 @@
       <c r="AG74">
         <v>2.451101779937744</v>
       </c>
-      <c r="AH74" t="s">
-        <v>226</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>301076</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>-7.39</v>
@@ -7253,7 +8567,7 @@
         <v>160659.64</v>
       </c>
       <c r="J75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K75">
         <v>10</v>
@@ -7294,8 +8608,23 @@
       <c r="W75">
         <v>-2.34</v>
       </c>
+      <c r="X75">
+        <v>-3.61</v>
+      </c>
+      <c r="Y75">
+        <v>60.95</v>
+      </c>
+      <c r="Z75">
+        <v>4.8</v>
+      </c>
       <c r="AC75" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7303,22 +8632,25 @@
       <c r="AG75">
         <v>1.667151927947998</v>
       </c>
-      <c r="AH75" t="s">
-        <v>226</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>301086</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>2.39</v>
@@ -7336,7 +8668,7 @@
         <v>53696.24</v>
       </c>
       <c r="J76" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -7377,8 +8709,23 @@
       <c r="W76">
         <v>-0.87</v>
       </c>
+      <c r="X76">
+        <v>5.6</v>
+      </c>
+      <c r="Y76">
+        <v>73.8</v>
+      </c>
+      <c r="Z76">
+        <v>7.58</v>
+      </c>
       <c r="AC76" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7386,22 +8733,25 @@
       <c r="AG76">
         <v>4.115342140197754</v>
       </c>
-      <c r="AH76" t="s">
-        <v>226</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>301095</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>-6.18</v>
@@ -7419,7 +8769,7 @@
         <v>119900.45</v>
       </c>
       <c r="J77" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K77">
         <v>15</v>
@@ -7460,8 +8810,23 @@
       <c r="W77">
         <v>-0.61</v>
       </c>
+      <c r="X77">
+        <v>0.6</v>
+      </c>
+      <c r="Y77">
+        <v>90.34999999999999</v>
+      </c>
+      <c r="Z77">
+        <v>1.49</v>
+      </c>
       <c r="AC77" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7469,22 +8834,25 @@
       <c r="AG77">
         <v>2.151758432388306</v>
       </c>
-      <c r="AH77" t="s">
-        <v>226</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>301120</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>7.09</v>
@@ -7502,7 +8870,7 @@
         <v>102849.95</v>
       </c>
       <c r="J78" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K78">
         <v>11</v>
@@ -7543,8 +8911,23 @@
       <c r="W78">
         <v>1.24</v>
       </c>
+      <c r="X78">
+        <v>-3.1</v>
+      </c>
+      <c r="Y78">
+        <v>16.5</v>
+      </c>
+      <c r="Z78">
+        <v>-1.55</v>
+      </c>
       <c r="AC78" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7552,22 +8935,25 @@
       <c r="AG78">
         <v>2.634841203689575</v>
       </c>
-      <c r="AH78" t="s">
-        <v>226</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>301123</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>3.45</v>
@@ -7585,7 +8971,7 @@
         <v>130178.11</v>
       </c>
       <c r="J79" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K79">
         <v>11</v>
@@ -7626,8 +9012,23 @@
       <c r="W79">
         <v>0.08</v>
       </c>
+      <c r="X79">
+        <v>-5.46</v>
+      </c>
+      <c r="Y79">
+        <v>48</v>
+      </c>
+      <c r="Z79">
+        <v>-1.88</v>
+      </c>
       <c r="AC79" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7635,22 +9036,25 @@
       <c r="AG79">
         <v>-0.7193912267684937</v>
       </c>
-      <c r="AH79" t="s">
-        <v>226</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>301128</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>9.73</v>
@@ -7668,7 +9072,7 @@
         <v>171000.2</v>
       </c>
       <c r="J80" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K80">
         <v>5</v>
@@ -7709,8 +9113,23 @@
       <c r="W80">
         <v>-0.66</v>
       </c>
+      <c r="X80">
+        <v>-1.27</v>
+      </c>
+      <c r="Y80">
+        <v>101.66</v>
+      </c>
+      <c r="Z80">
+        <v>3.76</v>
+      </c>
       <c r="AC80" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7718,22 +9137,25 @@
       <c r="AG80">
         <v>-3.474072217941284</v>
       </c>
-      <c r="AH80" t="s">
-        <v>226</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>301151</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>-1.37</v>
@@ -7751,7 +9173,7 @@
         <v>81854.13</v>
       </c>
       <c r="J81" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -7792,8 +9214,23 @@
       <c r="W81">
         <v>-3.44</v>
       </c>
+      <c r="X81">
+        <v>-2.7</v>
+      </c>
+      <c r="Y81">
+        <v>25.69</v>
+      </c>
+      <c r="Z81">
+        <v>-0.8100000000000001</v>
+      </c>
       <c r="AC81" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7801,22 +9238,25 @@
       <c r="AG81">
         <v>-2.572912693023682</v>
       </c>
-      <c r="AH81" t="s">
-        <v>226</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>301161</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>1.12</v>
@@ -7834,7 +9274,7 @@
         <v>65410.39</v>
       </c>
       <c r="J82" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K82">
         <v>12</v>
@@ -7875,8 +9315,23 @@
       <c r="W82">
         <v>0.58</v>
       </c>
+      <c r="X82">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="Y82">
+        <v>46.06</v>
+      </c>
+      <c r="Z82">
+        <v>0.39</v>
+      </c>
       <c r="AC82" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7884,22 +9339,25 @@
       <c r="AG82">
         <v>-9.682912826538086</v>
       </c>
-      <c r="AH82" t="s">
-        <v>226</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>301165</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>2.02</v>
@@ -7917,7 +9375,7 @@
         <v>193724.85</v>
       </c>
       <c r="J83" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K83">
         <v>6</v>
@@ -7958,8 +9416,23 @@
       <c r="W83">
         <v>-0.32</v>
       </c>
+      <c r="X83">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y83">
+        <v>85</v>
+      </c>
+      <c r="Z83">
+        <v>1.8</v>
+      </c>
       <c r="AC83" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7967,22 +9440,25 @@
       <c r="AG83">
         <v>2.371600389480591</v>
       </c>
-      <c r="AH83" t="s">
-        <v>226</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>301183</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>11.75</v>
@@ -8000,7 +9476,7 @@
         <v>141119.59</v>
       </c>
       <c r="J84" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K84">
         <v>1</v>
@@ -8041,8 +9517,23 @@
       <c r="W84">
         <v>1.82</v>
       </c>
+      <c r="X84">
+        <v>-3.17</v>
+      </c>
+      <c r="Y84">
+        <v>80.36</v>
+      </c>
+      <c r="Z84">
+        <v>-2</v>
+      </c>
       <c r="AC84" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -8050,22 +9541,25 @@
       <c r="AG84">
         <v>3.932033538818359</v>
       </c>
-      <c r="AH84" t="s">
-        <v>226</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>301196</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>-3.18</v>
@@ -8083,7 +9577,7 @@
         <v>96735.78</v>
       </c>
       <c r="J85" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K85">
         <v>5</v>
@@ -8124,8 +9618,23 @@
       <c r="W85">
         <v>0.1</v>
       </c>
+      <c r="X85">
+        <v>-1.3</v>
+      </c>
+      <c r="Y85">
+        <v>97.86</v>
+      </c>
+      <c r="Z85">
+        <v>-0.14</v>
+      </c>
       <c r="AC85" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -8133,22 +9642,25 @@
       <c r="AG85">
         <v>2.57611083984375</v>
       </c>
-      <c r="AH85" t="s">
-        <v>226</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>301217</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>-3.32</v>
@@ -8166,7 +9678,7 @@
         <v>188800.69</v>
       </c>
       <c r="J86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K86">
         <v>32</v>
@@ -8207,8 +9719,23 @@
       <c r="W86">
         <v>-0.41</v>
       </c>
+      <c r="X86">
+        <v>1.24</v>
+      </c>
+      <c r="Y86">
+        <v>33.95</v>
+      </c>
+      <c r="Z86">
+        <v>5.17</v>
+      </c>
       <c r="AC86" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8216,22 +9743,25 @@
       <c r="AG86">
         <v>3.534117460250854</v>
       </c>
-      <c r="AH86" t="s">
-        <v>226</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>301226</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>2.88</v>
@@ -8249,7 +9779,7 @@
         <v>75061.11</v>
       </c>
       <c r="J87" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -8290,8 +9820,23 @@
       <c r="W87">
         <v>-0.87</v>
       </c>
+      <c r="X87">
+        <v>-5.77</v>
+      </c>
+      <c r="Y87">
+        <v>40.34</v>
+      </c>
+      <c r="Z87">
+        <v>-2.56</v>
+      </c>
       <c r="AC87" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8299,22 +9844,25 @@
       <c r="AG87">
         <v>4.810753345489502</v>
       </c>
-      <c r="AH87" t="s">
-        <v>226</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>301251</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>-2.87</v>
@@ -8332,7 +9880,7 @@
         <v>75325.2</v>
       </c>
       <c r="J88" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K88">
         <v>10</v>
@@ -8373,8 +9921,23 @@
       <c r="W88">
         <v>-2.23</v>
       </c>
+      <c r="X88">
+        <v>-3.93</v>
+      </c>
+      <c r="Y88">
+        <v>59.19</v>
+      </c>
+      <c r="Z88">
+        <v>-2.26</v>
+      </c>
       <c r="AC88" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8382,22 +9945,25 @@
       <c r="AG88">
         <v>-0.5985840559005737</v>
       </c>
-      <c r="AH88" t="s">
-        <v>226</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>301323</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>-2.28</v>
@@ -8415,7 +9981,7 @@
         <v>31769.05</v>
       </c>
       <c r="J89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K89">
         <v>6</v>
@@ -8456,8 +10022,23 @@
       <c r="W89">
         <v>-0.45</v>
       </c>
+      <c r="X89">
+        <v>0.3</v>
+      </c>
+      <c r="Y89">
+        <v>62.5</v>
+      </c>
+      <c r="Z89">
+        <v>4.73</v>
+      </c>
       <c r="AC89" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8465,22 +10046,25 @@
       <c r="AG89">
         <v>4.537518978118896</v>
       </c>
-      <c r="AH89" t="s">
-        <v>226</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>301326</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>-4.07</v>
@@ -8498,7 +10082,7 @@
         <v>52427.71</v>
       </c>
       <c r="J90" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K90">
         <v>8</v>
@@ -8539,8 +10123,23 @@
       <c r="W90">
         <v>-0.86</v>
       </c>
+      <c r="X90">
+        <v>-3.55</v>
+      </c>
+      <c r="Y90">
+        <v>107.69</v>
+      </c>
+      <c r="Z90">
+        <v>1.58</v>
+      </c>
       <c r="AC90" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8548,22 +10147,25 @@
       <c r="AG90">
         <v>5.443844318389893</v>
       </c>
-      <c r="AH90" t="s">
-        <v>226</v>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>301345</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>3.4</v>
@@ -8581,7 +10183,7 @@
         <v>33924.94</v>
       </c>
       <c r="J91" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K91">
         <v>19</v>
@@ -8622,8 +10224,23 @@
       <c r="W91">
         <v>-0.13</v>
       </c>
+      <c r="X91">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Y91">
+        <v>180.98</v>
+      </c>
+      <c r="Z91">
+        <v>1.8</v>
+      </c>
       <c r="AC91" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -8631,22 +10248,25 @@
       <c r="AG91">
         <v>0.9369444847106934</v>
       </c>
-      <c r="AH91" t="s">
-        <v>226</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>301357</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>1.24</v>
@@ -8664,7 +10284,7 @@
         <v>214756.84</v>
       </c>
       <c r="J92" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K92">
         <v>16</v>
@@ -8705,8 +10325,23 @@
       <c r="W92">
         <v>-0.5</v>
       </c>
+      <c r="X92">
+        <v>-2.49</v>
+      </c>
+      <c r="Y92">
+        <v>182.96</v>
+      </c>
+      <c r="Z92">
+        <v>5.76</v>
+      </c>
       <c r="AC92" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -8714,22 +10349,25 @@
       <c r="AG92">
         <v>4.070971965789795</v>
       </c>
-      <c r="AH92" t="s">
-        <v>226</v>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>301397</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>-5.62</v>
@@ -8747,7 +10385,7 @@
         <v>78611.60000000001</v>
       </c>
       <c r="J93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K93">
         <v>9</v>
@@ -8788,8 +10426,23 @@
       <c r="W93">
         <v>-0.71</v>
       </c>
+      <c r="X93">
+        <v>-2.89</v>
+      </c>
+      <c r="Y93">
+        <v>46.1</v>
+      </c>
+      <c r="Z93">
+        <v>-0.52</v>
+      </c>
       <c r="AC93" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -8797,22 +10450,25 @@
       <c r="AG93">
         <v>4.079405784606934</v>
       </c>
-      <c r="AH93" t="s">
-        <v>226</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>301398</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94">
         <v>3.03</v>
@@ -8830,7 +10486,7 @@
         <v>67568.53999999999</v>
       </c>
       <c r="J94" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K94">
         <v>3</v>
@@ -8871,8 +10527,23 @@
       <c r="W94">
         <v>-0.03</v>
       </c>
+      <c r="X94">
+        <v>0.74</v>
+      </c>
+      <c r="Y94">
+        <v>59.58</v>
+      </c>
+      <c r="Z94">
+        <v>9.52</v>
+      </c>
       <c r="AC94" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>1</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -8880,22 +10551,25 @@
       <c r="AG94">
         <v>2.155710697174072</v>
       </c>
-      <c r="AH94" t="s">
-        <v>226</v>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>301486</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>-5.17</v>
@@ -8913,7 +10587,7 @@
         <v>95896.81</v>
       </c>
       <c r="J95" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K95">
         <v>5</v>
@@ -8954,8 +10628,23 @@
       <c r="W95">
         <v>-0.45</v>
       </c>
+      <c r="X95">
+        <v>-4.81</v>
+      </c>
+      <c r="Y95">
+        <v>87.79000000000001</v>
+      </c>
+      <c r="Z95">
+        <v>-2.44</v>
+      </c>
       <c r="AC95" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -8963,22 +10652,25 @@
       <c r="AG95">
         <v>-1.226267695426941</v>
       </c>
-      <c r="AH95" t="s">
-        <v>226</v>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>301489</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>6.54</v>
@@ -8996,7 +10688,7 @@
         <v>115538.43</v>
       </c>
       <c r="J96" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K96">
         <v>14</v>
@@ -9037,8 +10729,23 @@
       <c r="W96">
         <v>-0.25</v>
       </c>
+      <c r="X96">
+        <v>-3.47</v>
+      </c>
+      <c r="Y96">
+        <v>188.88</v>
+      </c>
+      <c r="Z96">
+        <v>3.97</v>
+      </c>
       <c r="AC96" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -9046,22 +10753,25 @@
       <c r="AG96">
         <v>-7.907268047332764</v>
       </c>
-      <c r="AH96" t="s">
-        <v>226</v>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>301511</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97">
         <v>2.49</v>
@@ -9079,7 +10789,7 @@
         <v>223579.37</v>
       </c>
       <c r="J97" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K97">
         <v>41</v>
@@ -9120,8 +10830,23 @@
       <c r="W97">
         <v>0.44</v>
       </c>
+      <c r="X97">
+        <v>-2.99</v>
+      </c>
+      <c r="Y97">
+        <v>40.55</v>
+      </c>
+      <c r="Z97">
+        <v>-0.61</v>
+      </c>
       <c r="AC97" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -9129,22 +10854,25 @@
       <c r="AG97">
         <v>11.25949001312256</v>
       </c>
-      <c r="AH97" t="s">
-        <v>226</v>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C98">
         <v>301525</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E98">
         <v>12.17</v>
@@ -9162,7 +10890,7 @@
         <v>83285.14999999999</v>
       </c>
       <c r="J98" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -9203,8 +10931,23 @@
       <c r="W98">
         <v>0.96</v>
       </c>
+      <c r="X98">
+        <v>-5.2</v>
+      </c>
+      <c r="Y98">
+        <v>103.56</v>
+      </c>
+      <c r="Z98">
+        <v>-2.8</v>
+      </c>
       <c r="AC98" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -9212,22 +10955,25 @@
       <c r="AG98">
         <v>2.859220743179321</v>
       </c>
-      <c r="AH98" t="s">
-        <v>226</v>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C99">
         <v>301526</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E99">
         <v>-6.28</v>
@@ -9245,7 +10991,7 @@
         <v>192315.35</v>
       </c>
       <c r="J99" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K99">
         <v>9</v>
@@ -9286,8 +11032,23 @@
       <c r="W99">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X99">
+        <v>-2.28</v>
+      </c>
+      <c r="Y99">
+        <v>6.67</v>
+      </c>
+      <c r="Z99">
+        <v>1.52</v>
+      </c>
       <c r="AC99" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
       </c>
       <c r="AF99">
         <v>0</v>
@@ -9295,22 +11056,25 @@
       <c r="AG99">
         <v>1.609435558319092</v>
       </c>
-      <c r="AH99" t="s">
-        <v>226</v>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C100">
         <v>301529</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E100">
         <v>4.5</v>
@@ -9328,7 +11092,7 @@
         <v>37524.8</v>
       </c>
       <c r="J100" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K100">
         <v>1</v>
@@ -9369,8 +11133,23 @@
       <c r="W100">
         <v>0.44</v>
       </c>
+      <c r="X100">
+        <v>-0.23</v>
+      </c>
+      <c r="Y100">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="Z100">
+        <v>0.72</v>
+      </c>
       <c r="AC100" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -9378,22 +11157,25 @@
       <c r="AG100">
         <v>3.717151880264282</v>
       </c>
-      <c r="AH100" t="s">
-        <v>226</v>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C101">
         <v>301626</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E101">
         <v>-1.08</v>
@@ -9411,7 +11193,7 @@
         <v>46339.2</v>
       </c>
       <c r="J101" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K101">
         <v>3</v>
@@ -9452,8 +11234,23 @@
       <c r="W101">
         <v>0.5600000000000001</v>
       </c>
+      <c r="X101">
+        <v>9.17</v>
+      </c>
+      <c r="Y101">
+        <v>180.63</v>
+      </c>
+      <c r="Z101">
+        <v>14.89</v>
+      </c>
       <c r="AC101" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>1</v>
       </c>
       <c r="AF101">
         <v>0</v>
@@ -9461,22 +11258,25 @@
       <c r="AG101">
         <v>16.85900115966797</v>
       </c>
-      <c r="AH101" t="s">
-        <v>226</v>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C102">
         <v>688020</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E102">
         <v>0.47</v>
@@ -9494,7 +11294,7 @@
         <v>32240.95</v>
       </c>
       <c r="J102" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K102">
         <v>1</v>
@@ -9535,8 +11335,23 @@
       <c r="W102">
         <v>0.58</v>
       </c>
+      <c r="X102">
+        <v>0.26</v>
+      </c>
+      <c r="Y102">
+        <v>58.42</v>
+      </c>
+      <c r="Z102">
+        <v>0.95</v>
+      </c>
       <c r="AC102" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
       </c>
       <c r="AF102">
         <v>0</v>
@@ -9544,22 +11359,25 @@
       <c r="AG102">
         <v>151.9940185546875</v>
       </c>
-      <c r="AH102" t="s">
-        <v>226</v>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:34">
+    <row r="103" spans="1:35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C103">
         <v>688035</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E103">
         <v>5.9</v>
@@ -9577,7 +11395,7 @@
         <v>105195.04</v>
       </c>
       <c r="J103" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K103">
         <v>2</v>
@@ -9618,8 +11436,23 @@
       <c r="W103">
         <v>0.62</v>
       </c>
+      <c r="X103">
+        <v>1.58</v>
+      </c>
+      <c r="Y103">
+        <v>63.03</v>
+      </c>
+      <c r="Z103">
+        <v>3.91</v>
+      </c>
       <c r="AC103" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
       </c>
       <c r="AF103">
         <v>0</v>
@@ -9627,22 +11460,25 @@
       <c r="AG103">
         <v>2.752051591873169</v>
       </c>
-      <c r="AH103" t="s">
-        <v>226</v>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:34">
+    <row r="104" spans="1:35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C104">
         <v>688108</v>
       </c>
       <c r="D104" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E104">
         <v>-2.56</v>
@@ -9660,7 +11496,7 @@
         <v>348072.5</v>
       </c>
       <c r="J104" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K104">
         <v>7</v>
@@ -9701,8 +11537,23 @@
       <c r="W104">
         <v>-2.4</v>
       </c>
+      <c r="X104">
+        <v>-7.77</v>
+      </c>
+      <c r="Y104">
+        <v>41.85</v>
+      </c>
+      <c r="Z104">
+        <v>3.54</v>
+      </c>
       <c r="AC104" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
       </c>
       <c r="AF104">
         <v>0</v>
@@ -9710,22 +11561,25 @@
       <c r="AG104">
         <v>4.261510372161865</v>
       </c>
-      <c r="AH104" t="s">
-        <v>226</v>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:34">
+    <row r="105" spans="1:35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C105">
         <v>688110</v>
       </c>
       <c r="D105" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E105">
         <v>-1.81</v>
@@ -9743,7 +11597,7 @@
         <v>362409.65</v>
       </c>
       <c r="J105" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K105">
         <v>16</v>
@@ -9784,8 +11638,23 @@
       <c r="W105">
         <v>-0.88</v>
       </c>
+      <c r="X105">
+        <v>-3.75</v>
+      </c>
+      <c r="Y105">
+        <v>102.98</v>
+      </c>
+      <c r="Z105">
+        <v>0.85</v>
+      </c>
       <c r="AC105" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
       </c>
       <c r="AF105">
         <v>0</v>
@@ -9793,22 +11662,25 @@
       <c r="AG105">
         <v>0.6381049156188965</v>
       </c>
-      <c r="AH105" t="s">
-        <v>226</v>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:34">
+    <row r="106" spans="1:35">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C106">
         <v>688147</v>
       </c>
       <c r="D106" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E106">
         <v>-1.71</v>
@@ -9826,7 +11698,7 @@
         <v>37481.81</v>
       </c>
       <c r="J106" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K106">
         <v>2</v>
@@ -9867,8 +11739,23 @@
       <c r="W106">
         <v>-0.42</v>
       </c>
+      <c r="X106">
+        <v>1.71</v>
+      </c>
+      <c r="Y106">
+        <v>38.09</v>
+      </c>
+      <c r="Z106">
+        <v>1.98</v>
+      </c>
       <c r="AC106" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
       </c>
       <c r="AF106">
         <v>0</v>
@@ -9876,22 +11763,25 @@
       <c r="AG106">
         <v>2.588233232498169</v>
       </c>
-      <c r="AH106" t="s">
-        <v>226</v>
+      <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:34">
+    <row r="107" spans="1:35">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C107">
         <v>688167</v>
       </c>
       <c r="D107" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E107">
         <v>3.83</v>
@@ -9909,7 +11799,7 @@
         <v>96702.60000000001</v>
       </c>
       <c r="J107" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K107">
         <v>10</v>
@@ -9950,8 +11840,23 @@
       <c r="W107">
         <v>0.93</v>
       </c>
+      <c r="X107">
+        <v>3.56</v>
+      </c>
+      <c r="Y107">
+        <v>133</v>
+      </c>
+      <c r="Z107">
+        <v>11.79</v>
+      </c>
       <c r="AC107" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>1</v>
       </c>
       <c r="AF107">
         <v>0</v>
@@ -9959,22 +11864,25 @@
       <c r="AG107">
         <v>4.44418478012085</v>
       </c>
-      <c r="AH107" t="s">
-        <v>226</v>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
+        <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:34">
+    <row r="108" spans="1:35">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C108">
         <v>688189</v>
       </c>
       <c r="D108" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E108">
         <v>-0.43</v>
@@ -9992,7 +11900,7 @@
         <v>86884.38</v>
       </c>
       <c r="J108" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K108">
         <v>1</v>
@@ -10033,8 +11941,23 @@
       <c r="W108">
         <v>-0.11</v>
       </c>
+      <c r="X108">
+        <v>-6.39</v>
+      </c>
+      <c r="Y108">
+        <v>16.08</v>
+      </c>
+      <c r="Z108">
+        <v>-0.19</v>
+      </c>
       <c r="AC108" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
       </c>
       <c r="AF108">
         <v>0</v>
@@ -10042,22 +11965,25 @@
       <c r="AG108">
         <v>-3.72284197807312</v>
       </c>
-      <c r="AH108" t="s">
-        <v>226</v>
+      <c r="AH108">
+        <v>0</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:34">
+    <row r="109" spans="1:35">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C109">
         <v>688195</v>
       </c>
       <c r="D109" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E109">
         <v>4.22</v>
@@ -10075,7 +12001,7 @@
         <v>181935.81</v>
       </c>
       <c r="J109" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K109">
         <v>2</v>
@@ -10116,8 +12042,23 @@
       <c r="W109">
         <v>-1.64</v>
       </c>
+      <c r="X109">
+        <v>0.1</v>
+      </c>
+      <c r="Y109">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="Z109">
+        <v>1.74</v>
+      </c>
       <c r="AC109" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
       </c>
       <c r="AF109">
         <v>0</v>
@@ -10125,22 +12066,25 @@
       <c r="AG109">
         <v>8.328913688659668</v>
       </c>
-      <c r="AH109" t="s">
-        <v>226</v>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:34">
+    <row r="110" spans="1:35">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C110">
         <v>688199</v>
       </c>
       <c r="D110" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E110">
         <v>-3.13</v>
@@ -10158,7 +12102,7 @@
         <v>38216.8</v>
       </c>
       <c r="J110" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K110">
         <v>5</v>
@@ -10199,8 +12143,23 @@
       <c r="W110">
         <v>-0.37</v>
       </c>
+      <c r="X110">
+        <v>1.48</v>
+      </c>
+      <c r="Y110">
+        <v>29.69</v>
+      </c>
+      <c r="Z110">
+        <v>1.99</v>
+      </c>
       <c r="AC110" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
       </c>
       <c r="AF110">
         <v>0</v>
@@ -10208,22 +12167,25 @@
       <c r="AG110">
         <v>125.1648406982422</v>
       </c>
-      <c r="AH110" t="s">
-        <v>226</v>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:34">
+    <row r="111" spans="1:35">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C111">
         <v>688270</v>
       </c>
       <c r="D111" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E111">
         <v>5.01</v>
@@ -10241,7 +12203,7 @@
         <v>130233.87</v>
       </c>
       <c r="J111" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K111">
         <v>5</v>
@@ -10282,8 +12244,23 @@
       <c r="W111">
         <v>0.13</v>
       </c>
+      <c r="X111">
+        <v>-3.39</v>
+      </c>
+      <c r="Y111">
+        <v>74</v>
+      </c>
+      <c r="Z111">
+        <v>1.49</v>
+      </c>
       <c r="AC111" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
       </c>
       <c r="AF111">
         <v>0</v>
@@ -10291,22 +12268,25 @@
       <c r="AG111">
         <v>4.29072904586792</v>
       </c>
-      <c r="AH111" t="s">
-        <v>226</v>
+      <c r="AH111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:34">
+    <row r="112" spans="1:35">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C112">
         <v>688291</v>
       </c>
       <c r="D112" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E112">
         <v>-4.78</v>
@@ -10324,7 +12304,7 @@
         <v>30514.52</v>
       </c>
       <c r="J112" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K112">
         <v>4</v>
@@ -10365,8 +12345,23 @@
       <c r="W112">
         <v>-1.21</v>
       </c>
+      <c r="X112">
+        <v>-1.94</v>
+      </c>
+      <c r="Y112">
+        <v>38.86</v>
+      </c>
+      <c r="Z112">
+        <v>-0.97</v>
+      </c>
       <c r="AC112" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
+        <v>0</v>
       </c>
       <c r="AF112">
         <v>0</v>
@@ -10374,22 +12369,25 @@
       <c r="AG112">
         <v>4.432146072387695</v>
       </c>
-      <c r="AH112" t="s">
-        <v>226</v>
+      <c r="AH112">
+        <v>0</v>
+      </c>
+      <c r="AI112">
+        <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:34">
+    <row r="113" spans="1:35">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C113">
         <v>688313</v>
       </c>
       <c r="D113" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E113">
         <v>-1.5</v>
@@ -10407,7 +12405,7 @@
         <v>277455.26</v>
       </c>
       <c r="J113" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K113">
         <v>6</v>
@@ -10448,8 +12446,23 @@
       <c r="W113">
         <v>-0.67</v>
       </c>
+      <c r="X113">
+        <v>-2.36</v>
+      </c>
+      <c r="Y113">
+        <v>63.02</v>
+      </c>
+      <c r="Z113">
+        <v>-2.01</v>
+      </c>
       <c r="AC113" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD113">
+        <v>0</v>
+      </c>
+      <c r="AE113">
+        <v>0</v>
       </c>
       <c r="AF113">
         <v>0</v>
@@ -10457,22 +12470,25 @@
       <c r="AG113">
         <v>1.840821266174316</v>
       </c>
-      <c r="AH113" t="s">
-        <v>226</v>
+      <c r="AH113">
+        <v>0</v>
+      </c>
+      <c r="AI113">
+        <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:34">
+    <row r="114" spans="1:35">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C114">
         <v>688379</v>
       </c>
       <c r="D114" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E114">
         <v>-1.35</v>
@@ -10490,7 +12506,7 @@
         <v>48000.11</v>
       </c>
       <c r="J114" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K114">
         <v>8</v>
@@ -10531,8 +12547,23 @@
       <c r="W114">
         <v>-0.18</v>
       </c>
+      <c r="X114">
+        <v>0.17</v>
+      </c>
+      <c r="Y114">
+        <v>68.47</v>
+      </c>
+      <c r="Z114">
+        <v>3.01</v>
+      </c>
       <c r="AC114" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD114">
+        <v>0</v>
+      </c>
+      <c r="AE114">
+        <v>0</v>
       </c>
       <c r="AF114">
         <v>0</v>
@@ -10540,22 +12571,25 @@
       <c r="AG114">
         <v>7.801600933074951</v>
       </c>
-      <c r="AH114" t="s">
-        <v>226</v>
+      <c r="AH114">
+        <v>0</v>
+      </c>
+      <c r="AI114">
+        <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:34">
+    <row r="115" spans="1:35">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C115">
         <v>688381</v>
       </c>
       <c r="D115" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E115">
         <v>20</v>
@@ -10573,7 +12607,7 @@
         <v>92249.03</v>
       </c>
       <c r="J115" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K115">
         <v>1</v>
@@ -10614,8 +12648,23 @@
       <c r="W115">
         <v>2.74</v>
       </c>
+      <c r="X115">
+        <v>-3.39</v>
+      </c>
+      <c r="Y115">
+        <v>29.52</v>
+      </c>
+      <c r="Z115">
+        <v>-0.8100000000000001</v>
+      </c>
       <c r="AC115" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>0</v>
       </c>
       <c r="AF115">
         <v>1</v>
@@ -10623,22 +12672,25 @@
       <c r="AG115">
         <v>20.99007987976074</v>
       </c>
-      <c r="AH115" t="s">
-        <v>227</v>
+      <c r="AH115">
+        <v>1</v>
+      </c>
+      <c r="AI115">
+        <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:34">
+    <row r="116" spans="1:35">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C116">
         <v>688401</v>
       </c>
       <c r="D116" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E116">
         <v>-2.66</v>
@@ -10656,7 +12708,7 @@
         <v>27210.76</v>
       </c>
       <c r="J116" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K116">
         <v>3</v>
@@ -10697,8 +12749,23 @@
       <c r="W116">
         <v>-0.19</v>
       </c>
+      <c r="X116">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="Y116">
+        <v>44.9</v>
+      </c>
+      <c r="Z116">
+        <v>1.47</v>
+      </c>
       <c r="AC116" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD116">
+        <v>0</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
       </c>
       <c r="AF116">
         <v>0</v>
@@ -10706,22 +12773,25 @@
       <c r="AG116">
         <v>58.92242050170898</v>
       </c>
-      <c r="AH116" t="s">
-        <v>226</v>
+      <c r="AH116">
+        <v>0</v>
+      </c>
+      <c r="AI116">
+        <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:34">
+    <row r="117" spans="1:35">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C117">
         <v>688448</v>
       </c>
       <c r="D117" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E117">
         <v>0.25</v>
@@ -10739,7 +12809,7 @@
         <v>41641.42</v>
       </c>
       <c r="J117" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K117">
         <v>5</v>
@@ -10780,8 +12850,23 @@
       <c r="W117">
         <v>-1.03</v>
       </c>
+      <c r="X117">
+        <v>-5.57</v>
+      </c>
+      <c r="Y117">
+        <v>64.95999999999999</v>
+      </c>
+      <c r="Z117">
+        <v>-0.29</v>
+      </c>
       <c r="AC117" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD117">
+        <v>0</v>
+      </c>
+      <c r="AE117">
+        <v>0</v>
       </c>
       <c r="AF117">
         <v>0</v>
@@ -10789,22 +12874,25 @@
       <c r="AG117">
         <v>0.735235333442688</v>
       </c>
-      <c r="AH117" t="s">
-        <v>226</v>
+      <c r="AH117">
+        <v>0</v>
+      </c>
+      <c r="AI117">
+        <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:34">
+    <row r="118" spans="1:35">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C118">
         <v>688498</v>
       </c>
       <c r="D118" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E118">
         <v>-0.72</v>
@@ -10822,7 +12910,7 @@
         <v>85495.36</v>
       </c>
       <c r="J118" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K118">
         <v>6</v>
@@ -10863,8 +12951,23 @@
       <c r="W118">
         <v>0.14</v>
       </c>
+      <c r="X118">
+        <v>-2.18</v>
+      </c>
+      <c r="Y118">
+        <v>278</v>
+      </c>
+      <c r="Z118">
+        <v>1.09</v>
+      </c>
       <c r="AC118" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD118">
+        <v>0</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
       </c>
       <c r="AF118">
         <v>0</v>
@@ -10872,22 +12975,25 @@
       <c r="AG118">
         <v>5.182631492614746</v>
       </c>
-      <c r="AH118" t="s">
-        <v>226</v>
+      <c r="AH118">
+        <v>0</v>
+      </c>
+      <c r="AI118">
+        <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:34">
+    <row r="119" spans="1:35">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C119">
         <v>688499</v>
       </c>
       <c r="D119" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E119">
         <v>-0.19</v>
@@ -10905,7 +13011,7 @@
         <v>64171.74</v>
       </c>
       <c r="J119" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K119">
         <v>46</v>
@@ -10946,8 +13052,23 @@
       <c r="W119">
         <v>-0.11</v>
       </c>
+      <c r="X119">
+        <v>7.34</v>
+      </c>
+      <c r="Y119">
+        <v>67</v>
+      </c>
+      <c r="Z119">
+        <v>7.67</v>
+      </c>
       <c r="AC119" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD119">
+        <v>0</v>
+      </c>
+      <c r="AE119">
+        <v>1</v>
       </c>
       <c r="AF119">
         <v>0</v>
@@ -10955,22 +13076,25 @@
       <c r="AG119">
         <v>3.697789907455444</v>
       </c>
-      <c r="AH119" t="s">
-        <v>226</v>
+      <c r="AH119">
+        <v>0</v>
+      </c>
+      <c r="AI119">
+        <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:34">
+    <row r="120" spans="1:35">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C120">
         <v>688502</v>
       </c>
       <c r="D120" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E120">
         <v>-2.11</v>
@@ -10988,7 +13112,7 @@
         <v>52708.24</v>
       </c>
       <c r="J120" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K120">
         <v>17</v>
@@ -11029,8 +13153,23 @@
       <c r="W120">
         <v>-0.11</v>
       </c>
+      <c r="X120">
+        <v>9.66</v>
+      </c>
+      <c r="Y120">
+        <v>433.33</v>
+      </c>
+      <c r="Z120">
+        <v>14.86</v>
+      </c>
       <c r="AC120" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD120">
+        <v>0</v>
+      </c>
+      <c r="AE120">
+        <v>1</v>
       </c>
       <c r="AF120">
         <v>0</v>
@@ -11038,22 +13177,25 @@
       <c r="AG120">
         <v>-0.7877514362335205</v>
       </c>
-      <c r="AH120" t="s">
-        <v>226</v>
+      <c r="AH120">
+        <v>0</v>
+      </c>
+      <c r="AI120">
+        <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:34">
+    <row r="121" spans="1:35">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C121">
         <v>688556</v>
       </c>
       <c r="D121" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E121">
         <v>9.68</v>
@@ -11071,7 +13213,7 @@
         <v>89500.87</v>
       </c>
       <c r="J121" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K121">
         <v>17</v>
@@ -11112,8 +13254,23 @@
       <c r="W121">
         <v>1.17</v>
       </c>
+      <c r="X121">
+        <v>-1.53</v>
+      </c>
+      <c r="Y121">
+        <v>13.02</v>
+      </c>
+      <c r="Z121">
+        <v>-0.08</v>
+      </c>
       <c r="AC121" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD121">
+        <v>0</v>
+      </c>
+      <c r="AE121">
+        <v>0</v>
       </c>
       <c r="AF121">
         <v>0</v>
@@ -11121,22 +13278,25 @@
       <c r="AG121">
         <v>1.460312843322754</v>
       </c>
-      <c r="AH121" t="s">
-        <v>226</v>
+      <c r="AH121">
+        <v>0</v>
+      </c>
+      <c r="AI121">
+        <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:34">
+    <row r="122" spans="1:35">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C122">
         <v>688582</v>
       </c>
       <c r="D122" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E122">
         <v>-8.449999999999999</v>
@@ -11154,7 +13314,7 @@
         <v>164559.65</v>
       </c>
       <c r="J122" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K122">
         <v>2</v>
@@ -11195,8 +13355,23 @@
       <c r="W122">
         <v>-0.8</v>
       </c>
+      <c r="X122">
+        <v>4.22</v>
+      </c>
+      <c r="Y122">
+        <v>83.5</v>
+      </c>
+      <c r="Z122">
+        <v>4.83</v>
+      </c>
       <c r="AC122" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD122">
+        <v>0</v>
+      </c>
+      <c r="AE122">
+        <v>0</v>
       </c>
       <c r="AF122">
         <v>0</v>
@@ -11204,22 +13379,25 @@
       <c r="AG122">
         <v>-3.034472465515137</v>
       </c>
-      <c r="AH122" t="s">
-        <v>226</v>
+      <c r="AH122">
+        <v>0</v>
+      </c>
+      <c r="AI122">
+        <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:34">
+    <row r="123" spans="1:35">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C123">
         <v>688584</v>
       </c>
       <c r="D123" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E123">
         <v>-7.72</v>
@@ -11237,7 +13415,7 @@
         <v>59384.27</v>
       </c>
       <c r="J123" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K123">
         <v>5</v>
@@ -11278,8 +13456,23 @@
       <c r="W123">
         <v>-0.65</v>
       </c>
+      <c r="X123">
+        <v>12.46</v>
+      </c>
+      <c r="Y123">
+        <v>28.97</v>
+      </c>
+      <c r="Z123">
+        <v>14.91</v>
+      </c>
       <c r="AC123" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD123">
+        <v>0</v>
+      </c>
+      <c r="AE123">
+        <v>1</v>
       </c>
       <c r="AF123">
         <v>0</v>
@@ -11287,22 +13480,25 @@
       <c r="AG123">
         <v>4.108875751495361</v>
       </c>
-      <c r="AH123" t="s">
-        <v>226</v>
+      <c r="AH123">
+        <v>0</v>
+      </c>
+      <c r="AI123">
+        <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:34">
+    <row r="124" spans="1:35">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C124">
         <v>688603</v>
       </c>
       <c r="D124" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E124">
         <v>-2.75</v>
@@ -11320,7 +13516,7 @@
         <v>82840.36</v>
       </c>
       <c r="J124" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K124">
         <v>5</v>
@@ -11361,8 +13557,23 @@
       <c r="W124">
         <v>-0.36</v>
       </c>
+      <c r="X124">
+        <v>-1.31</v>
+      </c>
+      <c r="Y124">
+        <v>93.3</v>
+      </c>
+      <c r="Z124">
+        <v>-0.86</v>
+      </c>
       <c r="AC124" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD124">
+        <v>0</v>
+      </c>
+      <c r="AE124">
+        <v>0</v>
       </c>
       <c r="AF124">
         <v>0</v>
@@ -11370,22 +13581,25 @@
       <c r="AG124">
         <v>26.3182544708252</v>
       </c>
-      <c r="AH124" t="s">
-        <v>226</v>
+      <c r="AH124">
+        <v>0</v>
+      </c>
+      <c r="AI124">
+        <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:34">
+    <row r="125" spans="1:35">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C125">
         <v>688668</v>
       </c>
       <c r="D125" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E125">
         <v>-6.15</v>
@@ -11403,7 +13617,7 @@
         <v>90954</v>
       </c>
       <c r="J125" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K125">
         <v>24</v>
@@ -11444,8 +13658,23 @@
       <c r="W125">
         <v>-0.14</v>
       </c>
+      <c r="X125">
+        <v>-3.09</v>
+      </c>
+      <c r="Y125">
+        <v>110.54</v>
+      </c>
+      <c r="Z125">
+        <v>-1.89</v>
+      </c>
       <c r="AC125" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD125">
+        <v>0</v>
+      </c>
+      <c r="AE125">
+        <v>0</v>
       </c>
       <c r="AF125">
         <v>1</v>
@@ -11453,22 +13682,25 @@
       <c r="AG125">
         <v>2.275472640991211</v>
       </c>
-      <c r="AH125" t="s">
-        <v>226</v>
+      <c r="AH125">
+        <v>0</v>
+      </c>
+      <c r="AI125">
+        <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:34">
+    <row r="126" spans="1:35">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C126">
         <v>688716</v>
       </c>
       <c r="D126" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E126">
         <v>-5.25</v>
@@ -11486,7 +13718,7 @@
         <v>82211.55</v>
       </c>
       <c r="J126" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K126">
         <v>4</v>
@@ -11527,8 +13759,23 @@
       <c r="W126">
         <v>-2.85</v>
       </c>
+      <c r="X126">
+        <v>4.59</v>
+      </c>
+      <c r="Y126">
+        <v>57.59</v>
+      </c>
+      <c r="Z126">
+        <v>7</v>
+      </c>
       <c r="AC126" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD126">
+        <v>0</v>
+      </c>
+      <c r="AE126">
+        <v>0</v>
       </c>
       <c r="AF126">
         <v>1</v>
@@ -11536,22 +13783,25 @@
       <c r="AG126">
         <v>2.707872629165649</v>
       </c>
-      <c r="AH126" t="s">
-        <v>226</v>
+      <c r="AH126">
+        <v>0</v>
+      </c>
+      <c r="AI126">
+        <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:34">
+    <row r="127" spans="1:35">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C127">
         <v>688733</v>
       </c>
       <c r="D127" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E127">
         <v>-6.62</v>
@@ -11569,7 +13819,7 @@
         <v>67268.75</v>
       </c>
       <c r="J127" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K127">
         <v>4</v>
@@ -11610,8 +13860,23 @@
       <c r="W127">
         <v>-0.71</v>
       </c>
+      <c r="X127">
+        <v>-6.57</v>
+      </c>
+      <c r="Y127">
+        <v>28.68</v>
+      </c>
+      <c r="Z127">
+        <v>-2.32</v>
+      </c>
       <c r="AC127" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD127">
+        <v>0</v>
+      </c>
+      <c r="AE127">
+        <v>0</v>
       </c>
       <c r="AF127">
         <v>0</v>
@@ -11619,22 +13884,25 @@
       <c r="AG127">
         <v>2.746982574462891</v>
       </c>
-      <c r="AH127" t="s">
-        <v>226</v>
+      <c r="AH127">
+        <v>0</v>
+      </c>
+      <c r="AI127">
+        <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:34">
+    <row r="128" spans="1:35">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C128">
         <v>688767</v>
       </c>
       <c r="D128" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E128">
         <v>-2.66</v>
@@ -11652,7 +13920,7 @@
         <v>40537.65</v>
       </c>
       <c r="J128" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -11693,8 +13961,23 @@
       <c r="W128">
         <v>-0.19</v>
       </c>
+      <c r="X128">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y128">
+        <v>45.99</v>
+      </c>
+      <c r="Z128">
+        <v>2.2</v>
+      </c>
       <c r="AC128" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD128">
+        <v>0</v>
+      </c>
+      <c r="AE128">
+        <v>0</v>
       </c>
       <c r="AF128">
         <v>0</v>
@@ -11702,22 +13985,25 @@
       <c r="AG128">
         <v>1.760919570922852</v>
       </c>
-      <c r="AH128" t="s">
-        <v>226</v>
+      <c r="AH128">
+        <v>0</v>
+      </c>
+      <c r="AI128">
+        <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:34">
+    <row r="129" spans="1:35">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C129">
         <v>688800</v>
       </c>
       <c r="D129" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E129">
         <v>3.64</v>
@@ -11735,7 +14021,7 @@
         <v>198808.93</v>
       </c>
       <c r="J129" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K129">
         <v>11</v>
@@ -11776,8 +14062,23 @@
       <c r="W129">
         <v>0.25</v>
       </c>
+      <c r="X129">
+        <v>-7.82</v>
+      </c>
+      <c r="Y129">
+        <v>76</v>
+      </c>
+      <c r="Z129">
+        <v>-5.78</v>
+      </c>
       <c r="AC129" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AD129">
+        <v>0</v>
+      </c>
+      <c r="AE129">
+        <v>0</v>
       </c>
       <c r="AF129">
         <v>0</v>
@@ -11785,8 +14086,11 @@
       <c r="AG129">
         <v>1.016975164413452</v>
       </c>
-      <c r="AH129" t="s">
-        <v>226</v>
+      <c r="AH129">
+        <v>0</v>
+      </c>
+      <c r="AI129">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
